--- a/biology/Zoologie/Colostethus/Colostethus.xlsx
+++ b/biology/Zoologie/Colostethus/Colostethus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colostethus est un genre d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colostethus est un genre d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 20 espèces de ce genre se rencontrent du Panama au Nord du Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 20 espèces de ce genre se rencontrent du Panama au Nord du Pérou.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La majorité des espèces qui faisait partie de ce genre ont été transférées dans divers genres de la famille. Il était le fourre-tout dans lequel était décrit classiquement tous les Dendrobatidae non venimeux et non colorés, après des analyses génétiques, il a été démembré.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Amphibian Species of the World                      (11 juin 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Amphibian Species of the World                      (11 juin 2017) :
 Colostethus agilis Lynch &amp; Ruiz-Carranza, 1985
 Colostethus alacris Rivero &amp; Granados-Díaz, 1990
 Colostethus argyrogaster Morales &amp; Schulte, 1993
@@ -624,7 +642,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1866 : Fourth contribution to the herpetology of tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia,  vol. 18, p. 123-132 (texte intégral).</t>
         </is>
